--- a/cal slayer 0.5 zoom.xlsx
+++ b/cal slayer 0.5 zoom.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/640dce341da437cb/02 Time v3 physical Clock/Time v3 Clock camera and image processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="13_ncr:40009_{B2970093-D86E-46D6-A84B-1B4BF93138CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E488AC-2BBB-4467-A89D-5DC6DB7C0010}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:40009_{B2970093-D86E-46D6-A84B-1B4BF93138CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F30152-0561-4676-BE96-85966EAA726C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="cal new slayer mobile 16 to 9" sheetId="1" r:id="rId1"/>
+    <sheet name="calibration" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -21,18 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="51">
-  <si>
-    <t>az_sect</t>
-  </si>
-  <si>
-    <t>alt_sect</t>
-  </si>
-  <si>
-    <t>az_rel</t>
-  </si>
-  <si>
-    <t>alt_rel</t>
-  </si>
   <si>
     <t>rec_x</t>
   </si>
@@ -52,22 +40,10 @@
     <t>out2</t>
   </si>
   <si>
-    <t>az_total</t>
-  </si>
-  <si>
-    <t>alt_total</t>
-  </si>
-  <si>
     <t>px_x</t>
   </si>
   <si>
     <t>px_y</t>
-  </si>
-  <si>
-    <t>az</t>
-  </si>
-  <si>
-    <t>alt</t>
   </si>
   <si>
     <t>camera_name</t>
@@ -130,9 +106,6 @@
     <t>target_right</t>
   </si>
   <si>
-    <t>target_pos_azalt_relaim</t>
-  </si>
-  <si>
     <t>target_center_calculated_from_edges</t>
   </si>
   <si>
@@ -173,6 +146,33 @@
   </si>
   <si>
     <t>LB</t>
+  </si>
+  <si>
+    <t>target_pos_xysph_relaim</t>
+  </si>
+  <si>
+    <t>xsph_sect</t>
+  </si>
+  <si>
+    <t>ysph_sect</t>
+  </si>
+  <si>
+    <t>xsph_rel</t>
+  </si>
+  <si>
+    <t>ysph_rel</t>
+  </si>
+  <si>
+    <t>xsph_total</t>
+  </si>
+  <si>
+    <t>ysph_total</t>
+  </si>
+  <si>
+    <t>xsph</t>
+  </si>
+  <si>
+    <t>ysph</t>
   </si>
 </sst>
 </file>
@@ -1049,15 +1049,13 @@
   <dimension ref="A1:P592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E324" sqref="E324"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
@@ -1071,52 +1069,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1127,10 +1125,10 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1153,7 +1151,7 @@
         <v>3000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1173,10 +1171,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1195,7 +1193,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1215,7 +1213,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -1239,7 +1237,7 @@
         <v>2250</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1259,10 +1257,10 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1281,10 +1279,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1303,10 +1301,10 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1325,7 +1323,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1359,10 +1357,10 @@
         <v>-1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1389,10 +1387,10 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1423,10 +1421,10 @@
         <v>2004</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1457,10 +1455,10 @@
         <v>1989</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1491,10 +1489,10 @@
         <v>2020</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1525,10 +1523,10 @@
         <v>2004</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1559,10 +1557,10 @@
         <v>2004</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1589,10 +1587,10 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1619,10 +1617,10 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1653,10 +1651,10 @@
         <v>2654</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1687,10 +1685,10 @@
         <v>2653</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1721,10 +1719,10 @@
         <v>2653</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1751,10 +1749,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1781,10 +1779,10 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1815,10 +1813,10 @@
         <v>1991</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1849,10 +1847,10 @@
         <v>2022</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1883,10 +1881,10 @@
         <v>2006</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1913,10 +1911,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1943,10 +1941,10 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1977,7 +1975,7 @@
         <v>2160</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2009,7 +2007,7 @@
         <v>2320</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2041,7 +2039,7 @@
         <v>2482</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2073,7 +2071,7 @@
         <v>2004</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2105,7 +2103,7 @@
         <v>2160</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2137,7 +2135,7 @@
         <v>2320</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2169,7 +2167,7 @@
         <v>2482</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2201,7 +2199,7 @@
         <v>2006</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2233,7 +2231,7 @@
         <v>2162</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2265,7 +2263,7 @@
         <v>2321</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2297,7 +2295,7 @@
         <v>2483</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2325,10 +2323,10 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2359,10 +2357,10 @@
         <v>2660</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2393,10 +2391,10 @@
         <v>2643</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2427,10 +2425,10 @@
         <v>2678</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2461,10 +2459,10 @@
         <v>2659</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2495,10 +2493,10 @@
         <v>2660</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2525,10 +2523,10 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2555,10 +2553,10 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2589,10 +2587,10 @@
         <v>3496</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2623,10 +2621,10 @@
         <v>3494</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2657,10 +2655,10 @@
         <v>3493</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2687,10 +2685,10 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2717,10 +2715,10 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2751,10 +2749,10 @@
         <v>2630</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2785,10 +2783,10 @@
         <v>2665</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2819,10 +2817,10 @@
         <v>2647</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2849,10 +2847,10 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2879,10 +2877,10 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2913,7 +2911,7 @@
         <v>2840</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2945,7 +2943,7 @@
         <v>3036</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2977,7 +2975,7 @@
         <v>3250</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3009,7 +3007,7 @@
         <v>2655</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3041,7 +3039,7 @@
         <v>2834</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3073,7 +3071,7 @@
         <v>3030</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3105,7 +3103,7 @@
         <v>3243</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3137,7 +3135,7 @@
         <v>2652</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3169,7 +3167,7 @@
         <v>2831</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3201,7 +3199,7 @@
         <v>3025</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3233,7 +3231,7 @@
         <v>3238</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3261,10 +3259,10 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3295,10 +3293,10 @@
         <v>3570</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3329,10 +3327,10 @@
         <v>3542</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3363,10 +3361,10 @@
         <v>3597</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -3397,10 +3395,10 @@
         <v>3568</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3431,10 +3429,10 @@
         <v>3571</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3461,10 +3459,10 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3491,10 +3489,10 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -3521,10 +3519,10 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -3551,10 +3549,10 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -3581,10 +3579,10 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -3611,10 +3609,10 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -3641,10 +3639,10 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -3675,10 +3673,10 @@
         <v>3497</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -3709,10 +3707,10 @@
         <v>3552</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -3743,10 +3741,10 @@
         <v>3523</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -3773,10 +3771,10 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -3803,10 +3801,10 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -3837,7 +3835,7 @@
         <v>3862</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -3865,7 +3863,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -3893,7 +3891,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -3925,7 +3923,7 @@
         <v>3553</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -3957,7 +3955,7 @@
         <v>3842</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -3985,7 +3983,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -4013,7 +4011,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -4045,7 +4043,7 @@
         <v>3539</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -4077,7 +4075,7 @@
         <v>3827</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -4105,7 +4103,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -4133,7 +4131,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -4161,10 +4159,10 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -4191,10 +4189,10 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -4221,10 +4219,10 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -4251,10 +4249,10 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -4281,10 +4279,10 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -4311,10 +4309,10 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -4341,10 +4339,10 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -4371,10 +4369,10 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -4401,10 +4399,10 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -4431,10 +4429,10 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -4461,10 +4459,10 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -4491,10 +4489,10 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -4521,10 +4519,10 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -4551,10 +4549,10 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -4581,10 +4579,10 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -4611,10 +4609,10 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -4641,10 +4639,10 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -4671,10 +4669,10 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -4701,7 +4699,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -4729,7 +4727,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -4757,7 +4755,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -4785,7 +4783,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -4813,7 +4811,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -4841,7 +4839,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -4869,7 +4867,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -4897,7 +4895,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -4925,7 +4923,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -4953,7 +4951,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -4981,7 +4979,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -5009,10 +5007,10 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -5039,10 +5037,10 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -5069,10 +5067,10 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -5099,10 +5097,10 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -5129,10 +5127,10 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -5159,10 +5157,10 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -5189,10 +5187,10 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -5219,10 +5217,10 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H136" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -5249,10 +5247,10 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -5279,10 +5277,10 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -5309,10 +5307,10 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -5339,10 +5337,10 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -5369,10 +5367,10 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -5399,10 +5397,10 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -5429,10 +5427,10 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -5459,10 +5457,10 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -5489,10 +5487,10 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -5519,10 +5517,10 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -5549,7 +5547,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -5577,7 +5575,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -5605,7 +5603,7 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5633,7 +5631,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5661,7 +5659,7 @@
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5689,7 +5687,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -5717,7 +5715,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -5745,7 +5743,7 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -5773,7 +5771,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -5801,7 +5799,7 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -5829,7 +5827,7 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -5857,10 +5855,10 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -5891,10 +5889,10 @@
         <v>2012</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -5925,10 +5923,10 @@
         <v>1996</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -5959,10 +5957,10 @@
         <v>2028</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -5993,10 +5991,10 @@
         <v>2011</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H162" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -6027,10 +6025,10 @@
         <v>2011</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -6057,10 +6055,10 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -6087,10 +6085,10 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H165" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -6121,10 +6119,10 @@
         <v>2685</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -6155,10 +6153,10 @@
         <v>2682</v>
       </c>
       <c r="G167" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H167" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H167" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -6189,10 +6187,10 @@
         <v>2683</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -6219,10 +6217,10 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -6249,10 +6247,10 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -6283,10 +6281,10 @@
         <v>1989</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -6317,10 +6315,10 @@
         <v>2025</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -6351,10 +6349,10 @@
         <v>2006</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -6381,10 +6379,10 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -6411,10 +6409,10 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -6445,7 +6443,7 @@
         <v>2173</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -6477,7 +6475,7 @@
         <v>2338</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -6509,7 +6507,7 @@
         <v>2507</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -6541,7 +6539,7 @@
         <v>2010</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -6573,7 +6571,7 @@
         <v>2176</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -6605,7 +6603,7 @@
         <v>2344</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -6637,7 +6635,7 @@
         <v>2515</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -6669,7 +6667,7 @@
         <v>2008</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -6701,7 +6699,7 @@
         <v>2178</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -6733,7 +6731,7 @@
         <v>2351</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -6765,7 +6763,7 @@
         <v>2527</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -6793,10 +6791,10 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -6827,10 +6825,10 @@
         <v>2684</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -6861,10 +6859,10 @@
         <v>2666</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -6895,10 +6893,10 @@
         <v>2702</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -6929,10 +6927,10 @@
         <v>2684</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -6963,10 +6961,10 @@
         <v>2683</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -6993,10 +6991,10 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -7023,10 +7021,10 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H194" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H194" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -7057,10 +7055,10 @@
         <v>3544</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -7091,10 +7089,10 @@
         <v>3539</v>
       </c>
       <c r="G196" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H196" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H196" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -7125,10 +7123,10 @@
         <v>3541</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -7155,10 +7153,10 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -7185,10 +7183,10 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -7219,10 +7217,10 @@
         <v>2693</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -7253,10 +7251,10 @@
         <v>2732</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -7287,10 +7285,10 @@
         <v>2712</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -7317,10 +7315,10 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -7347,10 +7345,10 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -7381,7 +7379,7 @@
         <v>2870</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -7413,7 +7411,7 @@
         <v>3073</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -7445,7 +7443,7 @@
         <v>3292</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -7477,7 +7475,7 @@
         <v>2693</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -7509,7 +7507,7 @@
         <v>2882</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -7541,7 +7539,7 @@
         <v>3090</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -7573,7 +7571,7 @@
         <v>3316</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -7605,7 +7603,7 @@
         <v>2703</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -7637,7 +7635,7 @@
         <v>2898</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -7669,7 +7667,7 @@
         <v>3109</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -7701,7 +7699,7 @@
         <v>3342</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -7729,10 +7727,10 @@
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -7763,10 +7761,10 @@
         <v>3519</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -7797,10 +7795,10 @@
         <v>3494</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -7831,10 +7829,10 @@
         <v>3546</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -7865,10 +7863,10 @@
         <v>3521</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -7899,10 +7897,10 @@
         <v>3517</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -7929,10 +7927,10 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -7959,10 +7957,10 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H223" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H223" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -7989,10 +7987,10 @@
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -8019,10 +8017,10 @@
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H225" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H225" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -8049,10 +8047,10 @@
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -8079,10 +8077,10 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -8109,10 +8107,10 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -8139,10 +8137,10 @@
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -8169,10 +8167,10 @@
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -8199,10 +8197,10 @@
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -8229,10 +8227,10 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -8259,10 +8257,10 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
@@ -8293,7 +8291,7 @@
         <v>3797</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -8321,7 +8319,7 @@
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
@@ -8349,7 +8347,7 @@
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -8381,7 +8379,7 @@
         <v>3529</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
@@ -8413,7 +8411,7 @@
         <v>3813</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
@@ -8441,7 +8439,7 @@
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
@@ -8469,7 +8467,7 @@
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
@@ -8501,7 +8499,7 @@
         <v>3543</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
@@ -8533,7 +8531,7 @@
         <v>3837</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
@@ -8561,7 +8559,7 @@
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
@@ -8589,7 +8587,7 @@
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
@@ -8617,10 +8615,10 @@
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -8647,10 +8645,10 @@
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
@@ -8677,10 +8675,10 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -8707,10 +8705,10 @@
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -8737,10 +8735,10 @@
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
@@ -8767,10 +8765,10 @@
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -8797,10 +8795,10 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -8827,10 +8825,10 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H252" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H252" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -8857,10 +8855,10 @@
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -8887,10 +8885,10 @@
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H254" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H254" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
@@ -8917,10 +8915,10 @@
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -8947,10 +8945,10 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -8977,10 +8975,10 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -9007,10 +9005,10 @@
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -9037,10 +9035,10 @@
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -9067,10 +9065,10 @@
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -9097,10 +9095,10 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
@@ -9127,10 +9125,10 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
@@ -9157,7 +9155,7 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
@@ -9185,7 +9183,7 @@
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
@@ -9213,7 +9211,7 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
@@ -9241,7 +9239,7 @@
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
@@ -9269,7 +9267,7 @@
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
@@ -9297,7 +9295,7 @@
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
@@ -9325,7 +9323,7 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
@@ -9353,7 +9351,7 @@
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
@@ -9381,7 +9379,7 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
@@ -9409,7 +9407,7 @@
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
@@ -9437,7 +9435,7 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
@@ -9465,10 +9463,10 @@
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
@@ -9495,10 +9493,10 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -9525,10 +9523,10 @@
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
@@ -9555,10 +9553,10 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
@@ -9585,10 +9583,10 @@
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -9615,10 +9613,10 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -9645,10 +9643,10 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -9675,10 +9673,10 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H281" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H281" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -9705,10 +9703,10 @@
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -9735,10 +9733,10 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H283" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H283" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -9765,10 +9763,10 @@
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
@@ -9795,10 +9793,10 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
@@ -9825,10 +9823,10 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
@@ -9855,10 +9853,10 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
@@ -9885,10 +9883,10 @@
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
@@ -9915,10 +9913,10 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
@@ -9945,10 +9943,10 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
@@ -9975,10 +9973,10 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
@@ -10005,7 +10003,7 @@
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
@@ -10033,7 +10031,7 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
@@ -10061,7 +10059,7 @@
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
@@ -10089,7 +10087,7 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
@@ -10117,7 +10115,7 @@
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
@@ -10145,7 +10143,7 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
@@ -10173,7 +10171,7 @@
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
@@ -10201,7 +10199,7 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
@@ -10229,7 +10227,7 @@
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
@@ -10257,7 +10255,7 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
@@ -10285,7 +10283,7 @@
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
@@ -10313,10 +10311,10 @@
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
@@ -10347,10 +10345,10 @@
         <v>2000</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
@@ -10381,10 +10379,10 @@
         <v>1983</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
@@ -10415,10 +10413,10 @@
         <v>2018</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
@@ -10449,10 +10447,10 @@
         <v>1999</v>
       </c>
       <c r="G307" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
@@ -10483,10 +10481,10 @@
         <v>2000</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
@@ -10513,10 +10511,10 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
@@ -10543,10 +10541,10 @@
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H310" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H310" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
@@ -10577,10 +10575,10 @@
         <v>2747</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
@@ -10611,10 +10609,10 @@
         <v>2741</v>
       </c>
       <c r="G312" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H312" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H312" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
@@ -10645,10 +10643,10 @@
         <v>2743</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
@@ -10675,10 +10673,10 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
@@ -10705,10 +10703,10 @@
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
@@ -10735,10 +10733,10 @@
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
@@ -10765,10 +10763,10 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
@@ -10795,10 +10793,10 @@
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
@@ -10825,10 +10823,10 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
@@ -10855,10 +10853,10 @@
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
@@ -10889,7 +10887,7 @@
         <v>2179</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
@@ -10921,7 +10919,7 @@
         <v>2362</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
@@ -10953,7 +10951,7 @@
         <v>2548</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
@@ -10981,7 +10979,7 @@
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
       <c r="G324" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
@@ -11009,7 +11007,7 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
@@ -11037,7 +11035,7 @@
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
       <c r="G326" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
@@ -11065,7 +11063,7 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
@@ -11093,7 +11091,7 @@
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
@@ -11121,7 +11119,7 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
@@ -11149,7 +11147,7 @@
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
@@ -11177,7 +11175,7 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
       <c r="G331" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
@@ -11205,10 +11203,10 @@
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
       <c r="G332" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
@@ -11235,10 +11233,10 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
@@ -11265,10 +11263,10 @@
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
       <c r="G334" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
@@ -11295,10 +11293,10 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
       <c r="G335" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
@@ -11325,10 +11323,10 @@
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
       <c r="G336" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H336" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
@@ -11355,10 +11353,10 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
       <c r="G337" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
@@ -11385,10 +11383,10 @@
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
@@ -11415,10 +11413,10 @@
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H339" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H339" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
@@ -11445,10 +11443,10 @@
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
       <c r="G340" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
@@ -11475,10 +11473,10 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
       <c r="G341" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H341" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H341" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
@@ -11505,10 +11503,10 @@
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
@@ -11535,10 +11533,10 @@
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
@@ -11565,10 +11563,10 @@
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
@@ -11595,10 +11593,10 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
@@ -11625,10 +11623,10 @@
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
@@ -11655,10 +11653,10 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
@@ -11685,10 +11683,10 @@
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
@@ -11715,10 +11713,10 @@
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
@@ -11745,7 +11743,7 @@
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
@@ -11773,7 +11771,7 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
@@ -11801,7 +11799,7 @@
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
@@ -11829,7 +11827,7 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
@@ -11857,7 +11855,7 @@
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
@@ -11885,7 +11883,7 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
@@ -11913,7 +11911,7 @@
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
@@ -11941,7 +11939,7 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
@@ -11969,7 +11967,7 @@
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
       <c r="G358" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
@@ -11997,7 +11995,7 @@
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
       <c r="G359" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
@@ -12025,7 +12023,7 @@
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
       <c r="G360" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
@@ -12053,10 +12051,10 @@
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
       <c r="G361" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
@@ -12083,10 +12081,10 @@
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
       <c r="G362" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
@@ -12113,10 +12111,10 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
       <c r="G363" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
@@ -12143,10 +12141,10 @@
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
       <c r="G364" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
@@ -12173,10 +12171,10 @@
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
       <c r="G365" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
@@ -12203,10 +12201,10 @@
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
       <c r="G366" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
@@ -12233,10 +12231,10 @@
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
@@ -12263,10 +12261,10 @@
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H368" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H368" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
@@ -12293,10 +12291,10 @@
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
@@ -12323,10 +12321,10 @@
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H370" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H370" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
@@ -12353,10 +12351,10 @@
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
       <c r="G371" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
@@ -12383,10 +12381,10 @@
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
@@ -12413,10 +12411,10 @@
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
@@ -12443,10 +12441,10 @@
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
@@ -12473,10 +12471,10 @@
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
@@ -12503,10 +12501,10 @@
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
@@ -12533,10 +12531,10 @@
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
@@ -12563,10 +12561,10 @@
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
@@ -12593,7 +12591,7 @@
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
@@ -12621,7 +12619,7 @@
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
@@ -12649,7 +12647,7 @@
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
@@ -12677,7 +12675,7 @@
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
@@ -12705,7 +12703,7 @@
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
@@ -12733,7 +12731,7 @@
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
@@ -12761,7 +12759,7 @@
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
@@ -12789,7 +12787,7 @@
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
@@ -12817,7 +12815,7 @@
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
@@ -12845,7 +12843,7 @@
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
@@ -12873,7 +12871,7 @@
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
@@ -12901,10 +12899,10 @@
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
       <c r="G390" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
@@ -12931,10 +12929,10 @@
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
@@ -12961,10 +12959,10 @@
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
       <c r="G392" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
@@ -12991,10 +12989,10 @@
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
       <c r="G393" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
@@ -13021,10 +13019,10 @@
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
       <c r="G394" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H394" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
@@ -13051,10 +13049,10 @@
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
       <c r="G395" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
@@ -13081,10 +13079,10 @@
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
@@ -13111,10 +13109,10 @@
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H397" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H397" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
@@ -13141,10 +13139,10 @@
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
       <c r="G398" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
@@ -13171,10 +13169,10 @@
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
       <c r="G399" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H399" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H399" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
@@ -13201,10 +13199,10 @@
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
       <c r="G400" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
@@ -13231,10 +13229,10 @@
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
@@ -13261,10 +13259,10 @@
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
@@ -13291,10 +13289,10 @@
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
       <c r="G403" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
@@ -13321,10 +13319,10 @@
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
       <c r="G404" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
@@ -13351,10 +13349,10 @@
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
       <c r="G405" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
@@ -13381,10 +13379,10 @@
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
@@ -13411,10 +13409,10 @@
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H407" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
@@ -13441,7 +13439,7 @@
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
       <c r="G408" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
@@ -13469,7 +13467,7 @@
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
       <c r="G409" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
@@ -13497,7 +13495,7 @@
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
       <c r="G410" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
@@ -13525,7 +13523,7 @@
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
@@ -13553,7 +13551,7 @@
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
       <c r="G412" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
@@ -13581,7 +13579,7 @@
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
       <c r="G413" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
@@ -13609,7 +13607,7 @@
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
       <c r="G414" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
@@ -13637,7 +13635,7 @@
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
       <c r="G415" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
@@ -13665,7 +13663,7 @@
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
       <c r="G416" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
@@ -13693,7 +13691,7 @@
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
       <c r="G417" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
@@ -13721,7 +13719,7 @@
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
       <c r="G418" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
@@ -13749,10 +13747,10 @@
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
       <c r="G419" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
@@ -13779,10 +13777,10 @@
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
       <c r="G420" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
@@ -13809,10 +13807,10 @@
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
       <c r="G421" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
@@ -13839,10 +13837,10 @@
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
       <c r="G422" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
@@ -13869,10 +13867,10 @@
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
       <c r="G423" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H423" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
@@ -13899,10 +13897,10 @@
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
       <c r="G424" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
@@ -13929,10 +13927,10 @@
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
@@ -13959,10 +13957,10 @@
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="G426" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H426" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H426" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
@@ -13989,10 +13987,10 @@
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
       <c r="G427" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H427" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
@@ -14019,10 +14017,10 @@
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
       <c r="G428" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H428" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H428" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
@@ -14049,10 +14047,10 @@
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
       <c r="G429" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H429" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
@@ -14079,10 +14077,10 @@
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H430" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
@@ -14109,10 +14107,10 @@
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="G431" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
@@ -14139,10 +14137,10 @@
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
       <c r="G432" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H432" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
@@ -14169,10 +14167,10 @@
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
       <c r="G433" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H433" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
@@ -14199,10 +14197,10 @@
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
       <c r="G434" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H434" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
@@ -14229,10 +14227,10 @@
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="G435" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H435" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
@@ -14259,10 +14257,10 @@
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="G436" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
@@ -14289,7 +14287,7 @@
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
       <c r="G437" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
@@ -14317,7 +14315,7 @@
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
       <c r="G438" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
@@ -14345,7 +14343,7 @@
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
       <c r="G439" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
@@ -14373,7 +14371,7 @@
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
       <c r="G440" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
@@ -14401,7 +14399,7 @@
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
       <c r="G441" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
@@ -14429,7 +14427,7 @@
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
       <c r="G442" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
@@ -14457,7 +14455,7 @@
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
       <c r="G443" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
@@ -14485,7 +14483,7 @@
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
       <c r="G444" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
@@ -14513,7 +14511,7 @@
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
       <c r="G445" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
@@ -14541,7 +14539,7 @@
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
       <c r="G446" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
@@ -14569,7 +14567,7 @@
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
       <c r="G447" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
@@ -14597,10 +14595,10 @@
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
       <c r="G448" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H448" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
@@ -14627,10 +14625,10 @@
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H449" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
@@ -14657,10 +14655,10 @@
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
       <c r="G450" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
@@ -14687,10 +14685,10 @@
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
       <c r="G451" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
@@ -14717,10 +14715,10 @@
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
       <c r="G452" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
@@ -14747,10 +14745,10 @@
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
       <c r="G453" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H453" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
@@ -14777,10 +14775,10 @@
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
@@ -14807,10 +14805,10 @@
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="G455" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H455" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H455" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
@@ -14837,10 +14835,10 @@
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
@@ -14867,10 +14865,10 @@
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H457" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H457" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
@@ -14897,10 +14895,10 @@
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
       <c r="G458" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
@@ -14927,10 +14925,10 @@
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
@@ -14957,10 +14955,10 @@
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
@@ -14987,10 +14985,10 @@
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
@@ -15017,10 +15015,10 @@
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
       <c r="G462" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
@@ -15047,10 +15045,10 @@
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
       <c r="G463" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
@@ -15077,10 +15075,10 @@
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="G464" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
@@ -15107,10 +15105,10 @@
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="G465" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H465" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
@@ -15137,7 +15135,7 @@
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
       <c r="G466" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
@@ -15165,7 +15163,7 @@
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
       <c r="G467" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
@@ -15193,7 +15191,7 @@
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
       <c r="G468" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
@@ -15221,7 +15219,7 @@
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
       <c r="G469" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
@@ -15249,7 +15247,7 @@
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
       <c r="G470" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
@@ -15277,7 +15275,7 @@
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
       <c r="G471" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
@@ -15305,7 +15303,7 @@
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
       <c r="G472" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
@@ -15333,7 +15331,7 @@
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
       <c r="G473" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
@@ -15361,7 +15359,7 @@
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
       <c r="G474" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
@@ -15389,7 +15387,7 @@
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
       <c r="G475" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
@@ -15417,7 +15415,7 @@
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
       <c r="G476" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
@@ -15445,10 +15443,10 @@
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
       <c r="G477" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
@@ -15475,10 +15473,10 @@
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
       <c r="G478" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H478" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
@@ -15505,10 +15503,10 @@
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
       <c r="G479" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
@@ -15535,10 +15533,10 @@
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
       <c r="G480" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
@@ -15565,10 +15563,10 @@
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
       <c r="G481" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H481" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
@@ -15595,10 +15593,10 @@
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
       <c r="G482" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H482" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
@@ -15625,10 +15623,10 @@
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="G483" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
@@ -15655,10 +15653,10 @@
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="G484" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H484" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H484" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
@@ -15685,10 +15683,10 @@
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
       <c r="G485" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H485" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
@@ -15715,10 +15713,10 @@
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
       <c r="G486" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H486" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H486" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
@@ -15745,10 +15743,10 @@
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
       <c r="G487" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
@@ -15775,10 +15773,10 @@
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="G488" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
@@ -15805,10 +15803,10 @@
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H489" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
@@ -15835,10 +15833,10 @@
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
       <c r="G490" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H490" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
@@ -15865,10 +15863,10 @@
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
       <c r="G491" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
@@ -15895,10 +15893,10 @@
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
       <c r="G492" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H492" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
@@ -15925,10 +15923,10 @@
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="G493" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H493" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
@@ -15955,10 +15953,10 @@
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="G494" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H494" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
@@ -15985,7 +15983,7 @@
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
       <c r="G495" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
@@ -16013,7 +16011,7 @@
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
       <c r="G496" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
@@ -16041,7 +16039,7 @@
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
       <c r="G497" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
@@ -16069,7 +16067,7 @@
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
       <c r="G498" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
@@ -16097,7 +16095,7 @@
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
       <c r="G499" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
@@ -16125,7 +16123,7 @@
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
       <c r="G500" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
@@ -16153,7 +16151,7 @@
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
       <c r="G501" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
@@ -16181,7 +16179,7 @@
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
       <c r="G502" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
@@ -16209,7 +16207,7 @@
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
       <c r="G503" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H503" s="1"/>
       <c r="I503" s="1"/>
@@ -16237,7 +16235,7 @@
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
       <c r="G504" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H504" s="1"/>
       <c r="I504" s="1"/>
@@ -16265,7 +16263,7 @@
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
       <c r="G505" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H505" s="1"/>
       <c r="I505" s="1"/>
@@ -16293,10 +16291,10 @@
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
       <c r="G506" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H506" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
@@ -16323,10 +16321,10 @@
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
       <c r="G507" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
@@ -16353,10 +16351,10 @@
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
       <c r="G508" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
@@ -16383,10 +16381,10 @@
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
       <c r="G509" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
@@ -16413,10 +16411,10 @@
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
       <c r="G510" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H510" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
@@ -16443,10 +16441,10 @@
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
       <c r="G511" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
@@ -16473,10 +16471,10 @@
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="G512" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H512" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
@@ -16503,10 +16501,10 @@
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
       <c r="G513" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H513" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H513" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
@@ -16533,10 +16531,10 @@
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
       <c r="G514" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H514" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
@@ -16563,10 +16561,10 @@
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
       <c r="G515" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H515" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H515" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
@@ -16593,10 +16591,10 @@
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
       <c r="G516" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
@@ -16623,10 +16621,10 @@
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
       <c r="G517" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
@@ -16653,10 +16651,10 @@
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
       <c r="G518" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
@@ -16683,10 +16681,10 @@
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
       <c r="G519" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
@@ -16713,10 +16711,10 @@
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
       <c r="G520" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
@@ -16743,10 +16741,10 @@
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
       <c r="G521" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
@@ -16773,10 +16771,10 @@
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H522" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
@@ -16803,10 +16801,10 @@
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H523" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
@@ -16833,7 +16831,7 @@
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
       <c r="G524" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
@@ -16861,7 +16859,7 @@
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
       <c r="G525" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
@@ -16889,7 +16887,7 @@
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
       <c r="G526" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
@@ -16917,7 +16915,7 @@
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
       <c r="G527" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
@@ -16945,7 +16943,7 @@
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
       <c r="G528" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
@@ -16973,7 +16971,7 @@
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
       <c r="G529" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
@@ -17001,7 +16999,7 @@
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
       <c r="G530" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
@@ -17029,7 +17027,7 @@
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
       <c r="G531" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
@@ -17057,7 +17055,7 @@
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
       <c r="G532" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
@@ -17085,7 +17083,7 @@
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
       <c r="G533" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
@@ -17113,7 +17111,7 @@
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
       <c r="G534" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H534" s="1"/>
       <c r="I534" s="1"/>
@@ -17141,10 +17139,10 @@
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
       <c r="G535" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H535" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
@@ -17171,10 +17169,10 @@
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
       <c r="G536" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
@@ -17201,10 +17199,10 @@
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
       <c r="G537" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
@@ -17231,10 +17229,10 @@
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
       <c r="G538" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H538" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
@@ -17261,10 +17259,10 @@
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
       <c r="G539" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H539" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
@@ -17291,10 +17289,10 @@
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
       <c r="G540" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H540" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
@@ -17321,10 +17319,10 @@
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
       <c r="G541" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H541" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
@@ -17351,10 +17349,10 @@
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
       <c r="G542" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H542" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H542" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
@@ -17381,10 +17379,10 @@
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
       <c r="G543" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H543" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
@@ -17411,10 +17409,10 @@
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
       <c r="G544" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H544" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H544" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
@@ -17441,10 +17439,10 @@
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
       <c r="G545" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H545" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
@@ -17471,10 +17469,10 @@
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
       <c r="G546" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H546" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
@@ -17501,10 +17499,10 @@
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
       <c r="G547" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H547" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
@@ -17531,10 +17529,10 @@
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
       <c r="G548" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H548" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
@@ -17561,10 +17559,10 @@
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
       <c r="G549" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H549" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
@@ -17591,10 +17589,10 @@
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
       <c r="G550" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H550" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
@@ -17621,10 +17619,10 @@
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
       <c r="G551" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H551" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
@@ -17651,10 +17649,10 @@
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
       <c r="G552" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H552" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
@@ -17681,7 +17679,7 @@
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
       <c r="G553" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
@@ -17709,7 +17707,7 @@
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
       <c r="G554" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H554" s="1"/>
       <c r="I554" s="1"/>
@@ -17737,7 +17735,7 @@
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
       <c r="G555" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H555" s="1"/>
       <c r="I555" s="1"/>
@@ -17765,7 +17763,7 @@
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
       <c r="G556" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
@@ -17793,7 +17791,7 @@
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
       <c r="G557" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
@@ -17821,7 +17819,7 @@
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
       <c r="G558" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
@@ -17849,7 +17847,7 @@
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
       <c r="G559" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
@@ -17877,7 +17875,7 @@
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
       <c r="G560" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
@@ -17905,7 +17903,7 @@
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
       <c r="G561" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H561" s="1"/>
       <c r="I561" s="1"/>
@@ -17933,7 +17931,7 @@
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
       <c r="G562" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H562" s="1"/>
       <c r="I562" s="1"/>
@@ -17961,7 +17959,7 @@
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
       <c r="G563" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H563" s="1"/>
       <c r="I563" s="1"/>
@@ -17989,10 +17987,10 @@
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
       <c r="G564" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H564" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
@@ -18019,10 +18017,10 @@
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
       <c r="G565" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H565" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
@@ -18049,10 +18047,10 @@
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
       <c r="G566" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H566" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
@@ -18079,10 +18077,10 @@
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
       <c r="G567" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H567" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
@@ -18109,10 +18107,10 @@
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
       <c r="G568" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H568" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
@@ -18139,10 +18137,10 @@
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
       <c r="G569" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H569" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
@@ -18169,10 +18167,10 @@
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
       <c r="G570" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H570" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
@@ -18199,10 +18197,10 @@
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
       <c r="G571" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H571" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="H571" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
@@ -18229,10 +18227,10 @@
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
       <c r="G572" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H572" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
@@ -18259,10 +18257,10 @@
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
       <c r="G573" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H573" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="H573" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
@@ -18289,10 +18287,10 @@
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
       <c r="G574" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H574" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
@@ -18319,10 +18317,10 @@
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
       <c r="G575" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H575" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
@@ -18349,10 +18347,10 @@
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
       <c r="G576" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H576" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
@@ -18379,10 +18377,10 @@
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
       <c r="G577" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H577" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
@@ -18409,10 +18407,10 @@
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
       <c r="G578" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H578" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
@@ -18439,10 +18437,10 @@
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
       <c r="G579" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H579" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
@@ -18469,10 +18467,10 @@
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
       <c r="G580" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H580" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
@@ -18499,10 +18497,10 @@
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
       <c r="G581" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H581" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
@@ -18529,7 +18527,7 @@
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
       <c r="G582" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H582" s="1"/>
       <c r="I582" s="1"/>
@@ -18557,7 +18555,7 @@
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
       <c r="G583" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H583" s="1"/>
       <c r="I583" s="1"/>
@@ -18585,7 +18583,7 @@
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
       <c r="G584" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H584" s="1"/>
       <c r="I584" s="1"/>
@@ -18613,7 +18611,7 @@
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
       <c r="G585" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H585" s="1"/>
       <c r="I585" s="1"/>
@@ -18641,7 +18639,7 @@
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
       <c r="G586" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H586" s="1"/>
       <c r="I586" s="1"/>
@@ -18669,7 +18667,7 @@
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
       <c r="G587" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H587" s="1"/>
       <c r="I587" s="1"/>
@@ -18697,7 +18695,7 @@
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
       <c r="G588" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
@@ -18725,7 +18723,7 @@
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
       <c r="G589" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
@@ -18753,7 +18751,7 @@
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
       <c r="G590" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H590" s="1"/>
       <c r="I590" s="1"/>
@@ -18781,7 +18779,7 @@
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
       <c r="G591" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H591" s="1"/>
       <c r="I591" s="1"/>
@@ -18809,7 +18807,7 @@
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
       <c r="G592" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H592" s="1"/>
       <c r="I592" s="1"/>

--- a/cal slayer 0.5 zoom.xlsx
+++ b/cal slayer 0.5 zoom.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/640dce341da437cb/02 Time v3 physical Clock/Time v3 Clock camera and image processing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:40009_{B2970093-D86E-46D6-A84B-1B4BF93138CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7F30152-0561-4676-BE96-85966EAA726C}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:40009_{B2970093-D86E-46D6-A84B-1B4BF93138CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA200542-27ED-4399-98F9-A67D00598F21}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,12 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="51">
   <si>
-    <t>rec_x</t>
-  </si>
-  <si>
-    <t>rec_y</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -38,12 +32,6 @@
   </si>
   <si>
     <t>out2</t>
-  </si>
-  <si>
-    <t>px_x</t>
-  </si>
-  <si>
-    <t>px_y</t>
   </si>
   <si>
     <t>camera_name</t>
@@ -148,31 +136,43 @@
     <t>LB</t>
   </si>
   <si>
-    <t>target_pos_xysph_relaim</t>
+    <t>xang_sect</t>
   </si>
   <si>
-    <t>xsph_sect</t>
+    <t>yang_sect</t>
   </si>
   <si>
-    <t>ysph_sect</t>
+    <t>xang_rel</t>
   </si>
   <si>
-    <t>xsph_rel</t>
+    <t>yang_rel</t>
   </si>
   <si>
-    <t>ysph_rel</t>
+    <t>x_rec</t>
   </si>
   <si>
-    <t>xsph_total</t>
+    <t>y_rec</t>
   </si>
   <si>
-    <t>ysph_total</t>
+    <t>xang_total</t>
   </si>
   <si>
-    <t>xsph</t>
+    <t>yang_total</t>
   </si>
   <si>
-    <t>ysph</t>
+    <t>x_px</t>
+  </si>
+  <si>
+    <t>y_px</t>
+  </si>
+  <si>
+    <t>xang</t>
+  </si>
+  <si>
+    <t>yang</t>
+  </si>
+  <si>
+    <t>target_pos_xyangs_relaim</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:P592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1069,52 +1069,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1125,10 +1125,10 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1151,7 +1151,7 @@
         <v>3000</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1171,10 +1171,10 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1193,7 +1193,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1213,7 +1213,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="1"/>
@@ -1237,7 +1237,7 @@
         <v>2250</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1257,10 +1257,10 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1279,10 +1279,10 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1301,10 +1301,10 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1323,7 +1323,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
@@ -1357,10 +1357,10 @@
         <v>-1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1387,10 +1387,10 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1421,10 +1421,10 @@
         <v>2004</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1455,10 +1455,10 @@
         <v>1989</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1489,10 +1489,10 @@
         <v>2020</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1523,10 +1523,10 @@
         <v>2004</v>
       </c>
       <c r="G17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1557,10 +1557,10 @@
         <v>2004</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1587,10 +1587,10 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1617,10 +1617,10 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1651,10 +1651,10 @@
         <v>2654</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1685,10 +1685,10 @@
         <v>2653</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1719,10 +1719,10 @@
         <v>2653</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1749,10 +1749,10 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1779,10 +1779,10 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1813,10 +1813,10 @@
         <v>1991</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1847,10 +1847,10 @@
         <v>2022</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1881,10 +1881,10 @@
         <v>2006</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1911,10 +1911,10 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1941,10 +1941,10 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1975,7 +1975,7 @@
         <v>2160</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2007,7 +2007,7 @@
         <v>2320</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2039,7 +2039,7 @@
         <v>2482</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2071,7 +2071,7 @@
         <v>2004</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2103,7 +2103,7 @@
         <v>2160</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -2135,7 +2135,7 @@
         <v>2320</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -2167,7 +2167,7 @@
         <v>2482</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2199,7 +2199,7 @@
         <v>2006</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2231,7 +2231,7 @@
         <v>2162</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2263,7 +2263,7 @@
         <v>2321</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2295,7 +2295,7 @@
         <v>2483</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2323,10 +2323,10 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2357,10 +2357,10 @@
         <v>2660</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2391,10 +2391,10 @@
         <v>2643</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2425,10 +2425,10 @@
         <v>2678</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -2459,10 +2459,10 @@
         <v>2659</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2493,10 +2493,10 @@
         <v>2660</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2523,10 +2523,10 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2553,10 +2553,10 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2587,10 +2587,10 @@
         <v>3496</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2621,10 +2621,10 @@
         <v>3494</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2655,10 +2655,10 @@
         <v>3493</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -2685,10 +2685,10 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -2715,10 +2715,10 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2749,10 +2749,10 @@
         <v>2630</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -2783,10 +2783,10 @@
         <v>2665</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2817,10 +2817,10 @@
         <v>2647</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -2847,10 +2847,10 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -2877,10 +2877,10 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -2911,7 +2911,7 @@
         <v>2840</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2943,7 +2943,7 @@
         <v>3036</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
@@ -2975,7 +2975,7 @@
         <v>3250</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -3007,7 +3007,7 @@
         <v>2655</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
@@ -3039,7 +3039,7 @@
         <v>2834</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3071,7 +3071,7 @@
         <v>3030</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3103,7 +3103,7 @@
         <v>3243</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
@@ -3135,7 +3135,7 @@
         <v>2652</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
@@ -3167,7 +3167,7 @@
         <v>2831</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
@@ -3199,7 +3199,7 @@
         <v>3025</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
@@ -3231,7 +3231,7 @@
         <v>3238</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
@@ -3259,10 +3259,10 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -3293,10 +3293,10 @@
         <v>3570</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -3327,10 +3327,10 @@
         <v>3542</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3361,10 +3361,10 @@
         <v>3597</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -3395,10 +3395,10 @@
         <v>3568</v>
       </c>
       <c r="G75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -3429,10 +3429,10 @@
         <v>3571</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -3459,10 +3459,10 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3489,10 +3489,10 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -3519,10 +3519,10 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -3549,10 +3549,10 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -3579,10 +3579,10 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -3609,10 +3609,10 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -3639,10 +3639,10 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -3673,10 +3673,10 @@
         <v>3497</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -3707,10 +3707,10 @@
         <v>3552</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -3741,10 +3741,10 @@
         <v>3523</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -3771,10 +3771,10 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -3801,10 +3801,10 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -3835,7 +3835,7 @@
         <v>3862</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
@@ -3863,7 +3863,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
@@ -3891,7 +3891,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -3923,7 +3923,7 @@
         <v>3553</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
@@ -3955,7 +3955,7 @@
         <v>3842</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
@@ -3983,7 +3983,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -4011,7 +4011,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
@@ -4043,7 +4043,7 @@
         <v>3539</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
@@ -4075,7 +4075,7 @@
         <v>3827</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
@@ -4103,7 +4103,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
@@ -4131,7 +4131,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
@@ -4159,10 +4159,10 @@
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -4189,10 +4189,10 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -4219,10 +4219,10 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
       <c r="G102" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -4249,10 +4249,10 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="G103" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -4279,10 +4279,10 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
       <c r="G104" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -4309,10 +4309,10 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -4339,10 +4339,10 @@
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -4369,10 +4369,10 @@
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -4399,10 +4399,10 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
       <c r="G108" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -4429,10 +4429,10 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
       <c r="G109" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -4459,10 +4459,10 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -4489,10 +4489,10 @@
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -4519,10 +4519,10 @@
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -4549,10 +4549,10 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -4579,10 +4579,10 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
       <c r="G114" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -4609,10 +4609,10 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
       <c r="G115" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -4639,10 +4639,10 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -4669,10 +4669,10 @@
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
       <c r="G117" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -4699,7 +4699,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -4727,7 +4727,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
@@ -4755,7 +4755,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
       <c r="G120" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
@@ -4783,7 +4783,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
@@ -4811,7 +4811,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -4839,7 +4839,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
       <c r="G123" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
@@ -4867,7 +4867,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
       <c r="G124" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -4895,7 +4895,7 @@
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -4923,7 +4923,7 @@
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -4951,7 +4951,7 @@
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
       <c r="G127" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -4979,7 +4979,7 @@
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -5007,10 +5007,10 @@
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -5037,10 +5037,10 @@
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
       <c r="G130" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -5067,10 +5067,10 @@
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
       <c r="G131" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -5097,10 +5097,10 @@
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
       <c r="G132" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -5127,10 +5127,10 @@
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -5157,10 +5157,10 @@
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -5187,10 +5187,10 @@
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
       <c r="G135" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -5217,10 +5217,10 @@
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
       <c r="G136" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -5247,10 +5247,10 @@
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -5277,10 +5277,10 @@
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -5307,10 +5307,10 @@
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -5337,10 +5337,10 @@
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
       <c r="G140" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -5367,10 +5367,10 @@
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
       <c r="G141" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -5397,10 +5397,10 @@
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -5427,10 +5427,10 @@
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -5457,10 +5457,10 @@
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -5487,10 +5487,10 @@
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
       <c r="G145" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -5517,10 +5517,10 @@
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -5547,7 +5547,7 @@
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
@@ -5575,7 +5575,7 @@
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
@@ -5603,7 +5603,7 @@
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
@@ -5631,7 +5631,7 @@
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
@@ -5659,7 +5659,7 @@
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
       <c r="G151" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
@@ -5687,7 +5687,7 @@
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
       <c r="G152" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
@@ -5715,7 +5715,7 @@
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
       <c r="G153" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
@@ -5743,7 +5743,7 @@
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
       <c r="G154" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
@@ -5771,7 +5771,7 @@
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
       <c r="G155" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
@@ -5799,7 +5799,7 @@
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
       <c r="G156" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
@@ -5827,7 +5827,7 @@
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
       <c r="G157" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
@@ -5855,10 +5855,10 @@
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -5889,10 +5889,10 @@
         <v>2012</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H159" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -5923,10 +5923,10 @@
         <v>1996</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -5957,10 +5957,10 @@
         <v>2028</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H161" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -5991,10 +5991,10 @@
         <v>2011</v>
       </c>
       <c r="G162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H162" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -6025,10 +6025,10 @@
         <v>2011</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -6055,10 +6055,10 @@
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H164" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -6085,10 +6085,10 @@
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H165" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -6119,10 +6119,10 @@
         <v>2685</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H166" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -6153,10 +6153,10 @@
         <v>2682</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -6187,10 +6187,10 @@
         <v>2683</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -6217,10 +6217,10 @@
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H169" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -6247,10 +6247,10 @@
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -6281,10 +6281,10 @@
         <v>1989</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -6315,10 +6315,10 @@
         <v>2025</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H172" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -6349,10 +6349,10 @@
         <v>2006</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H173" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -6379,10 +6379,10 @@
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H174" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -6409,10 +6409,10 @@
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H175" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -6443,7 +6443,7 @@
         <v>2173</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
@@ -6475,7 +6475,7 @@
         <v>2338</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
@@ -6507,7 +6507,7 @@
         <v>2507</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -6539,7 +6539,7 @@
         <v>2010</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
@@ -6571,7 +6571,7 @@
         <v>2176</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
@@ -6603,7 +6603,7 @@
         <v>2344</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
@@ -6635,7 +6635,7 @@
         <v>2515</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
@@ -6667,7 +6667,7 @@
         <v>2008</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
@@ -6699,7 +6699,7 @@
         <v>2178</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
@@ -6731,7 +6731,7 @@
         <v>2351</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
@@ -6763,7 +6763,7 @@
         <v>2527</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
@@ -6791,10 +6791,10 @@
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -6825,10 +6825,10 @@
         <v>2684</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -6859,10 +6859,10 @@
         <v>2666</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H189" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -6893,10 +6893,10 @@
         <v>2702</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H190" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -6927,10 +6927,10 @@
         <v>2684</v>
       </c>
       <c r="G191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H191" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H191" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -6961,10 +6961,10 @@
         <v>2683</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H192" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -6991,10 +6991,10 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H193" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -7021,10 +7021,10 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H194" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -7055,10 +7055,10 @@
         <v>3544</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -7089,10 +7089,10 @@
         <v>3539</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H196" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -7123,10 +7123,10 @@
         <v>3541</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -7153,10 +7153,10 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -7183,10 +7183,10 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -7217,10 +7217,10 @@
         <v>2693</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -7251,10 +7251,10 @@
         <v>2732</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H201" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -7285,10 +7285,10 @@
         <v>2712</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -7315,10 +7315,10 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -7345,10 +7345,10 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -7379,7 +7379,7 @@
         <v>2870</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
@@ -7411,7 +7411,7 @@
         <v>3073</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
@@ -7443,7 +7443,7 @@
         <v>3292</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
@@ -7475,7 +7475,7 @@
         <v>2693</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
@@ -7507,7 +7507,7 @@
         <v>2882</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
@@ -7539,7 +7539,7 @@
         <v>3090</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
@@ -7571,7 +7571,7 @@
         <v>3316</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
@@ -7603,7 +7603,7 @@
         <v>2703</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
@@ -7635,7 +7635,7 @@
         <v>2898</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
@@ -7667,7 +7667,7 @@
         <v>3109</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
@@ -7699,7 +7699,7 @@
         <v>3342</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
@@ -7727,10 +7727,10 @@
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -7761,10 +7761,10 @@
         <v>3519</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -7795,10 +7795,10 @@
         <v>3494</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -7829,10 +7829,10 @@
         <v>3546</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -7863,10 +7863,10 @@
         <v>3521</v>
       </c>
       <c r="G220" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H220" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H220" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -7897,10 +7897,10 @@
         <v>3517</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -7927,10 +7927,10 @@
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
       <c r="G222" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -7957,10 +7957,10 @@
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
       <c r="G223" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -7987,10 +7987,10 @@
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -8017,10 +8017,10 @@
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -8047,10 +8047,10 @@
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -8077,10 +8077,10 @@
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
       <c r="G227" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -8107,10 +8107,10 @@
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
       <c r="G228" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -8137,10 +8137,10 @@
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -8167,10 +8167,10 @@
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
       <c r="G230" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -8197,10 +8197,10 @@
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
       <c r="G231" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -8227,10 +8227,10 @@
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
       <c r="G232" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -8257,10 +8257,10 @@
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
       <c r="G233" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
@@ -8291,7 +8291,7 @@
         <v>3797</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
@@ -8319,7 +8319,7 @@
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
@@ -8347,7 +8347,7 @@
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
@@ -8379,7 +8379,7 @@
         <v>3529</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
@@ -8411,7 +8411,7 @@
         <v>3813</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
@@ -8439,7 +8439,7 @@
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
       <c r="G239" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
@@ -8467,7 +8467,7 @@
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
       <c r="G240" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
@@ -8499,7 +8499,7 @@
         <v>3543</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
@@ -8531,7 +8531,7 @@
         <v>3837</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
@@ -8559,7 +8559,7 @@
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
       <c r="G243" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
@@ -8587,7 +8587,7 @@
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
       <c r="G244" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
@@ -8615,10 +8615,10 @@
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -8645,10 +8645,10 @@
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
@@ -8675,10 +8675,10 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -8705,10 +8705,10 @@
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -8735,10 +8735,10 @@
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H249" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H249" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
@@ -8765,10 +8765,10 @@
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -8795,10 +8795,10 @@
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
       <c r="G251" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -8825,10 +8825,10 @@
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
       <c r="G252" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -8855,10 +8855,10 @@
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -8885,10 +8885,10 @@
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
@@ -8915,10 +8915,10 @@
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -8945,10 +8945,10 @@
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
       <c r="G256" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -8975,10 +8975,10 @@
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
       <c r="G257" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -9005,10 +9005,10 @@
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -9035,10 +9035,10 @@
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -9065,10 +9065,10 @@
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -9095,10 +9095,10 @@
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
       <c r="G261" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
@@ -9125,10 +9125,10 @@
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
       <c r="G262" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
@@ -9155,7 +9155,7 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
       <c r="G263" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
@@ -9183,7 +9183,7 @@
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
       <c r="G264" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
@@ -9211,7 +9211,7 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
       <c r="G265" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
@@ -9239,7 +9239,7 @@
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
@@ -9267,7 +9267,7 @@
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
@@ -9295,7 +9295,7 @@
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
       <c r="G268" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
@@ -9323,7 +9323,7 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
@@ -9351,7 +9351,7 @@
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
@@ -9379,7 +9379,7 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
       <c r="G271" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
@@ -9407,7 +9407,7 @@
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
@@ -9435,7 +9435,7 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
@@ -9463,10 +9463,10 @@
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H274" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
@@ -9493,10 +9493,10 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -9523,10 +9523,10 @@
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
@@ -9553,10 +9553,10 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
       <c r="G277" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
@@ -9583,10 +9583,10 @@
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
       <c r="G278" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H278" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H278" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -9613,10 +9613,10 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
       <c r="G279" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -9643,10 +9643,10 @@
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
       <c r="G280" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -9673,10 +9673,10 @@
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
       <c r="G281" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -9703,10 +9703,10 @@
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
       <c r="G282" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -9733,10 +9733,10 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
       <c r="G283" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -9763,10 +9763,10 @@
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
       <c r="G284" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
@@ -9793,10 +9793,10 @@
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
       <c r="G285" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
@@ -9823,10 +9823,10 @@
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
       <c r="G286" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
@@ -9853,10 +9853,10 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
       <c r="G287" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
@@ -9883,10 +9883,10 @@
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
       <c r="G288" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
@@ -9913,10 +9913,10 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
       <c r="G289" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
@@ -9943,10 +9943,10 @@
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
       <c r="G290" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
@@ -9973,10 +9973,10 @@
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
       <c r="G291" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
@@ -10003,7 +10003,7 @@
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
       <c r="G292" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
@@ -10031,7 +10031,7 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
       <c r="G293" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
@@ -10059,7 +10059,7 @@
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
       <c r="G294" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
@@ -10087,7 +10087,7 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
       <c r="G295" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
@@ -10115,7 +10115,7 @@
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
       <c r="G296" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
@@ -10143,7 +10143,7 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
       <c r="G297" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
@@ -10171,7 +10171,7 @@
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
       <c r="G298" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
@@ -10199,7 +10199,7 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
       <c r="G299" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
@@ -10227,7 +10227,7 @@
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
       <c r="G300" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
@@ -10255,7 +10255,7 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
       <c r="G301" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
@@ -10283,7 +10283,7 @@
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
       <c r="G302" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
@@ -10311,10 +10311,10 @@
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
@@ -10345,10 +10345,10 @@
         <v>2000</v>
       </c>
       <c r="G304" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
@@ -10379,10 +10379,10 @@
         <v>1983</v>
       </c>
       <c r="G305" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
@@ -10413,10 +10413,10 @@
         <v>2018</v>
       </c>
       <c r="G306" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
@@ -10447,10 +10447,10 @@
         <v>1999</v>
       </c>
       <c r="G307" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H307" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H307" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
@@ -10481,10 +10481,10 @@
         <v>2000</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
@@ -10511,10 +10511,10 @@
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
       <c r="G309" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
@@ -10541,10 +10541,10 @@
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
       <c r="G310" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
@@ -10575,10 +10575,10 @@
         <v>2747</v>
       </c>
       <c r="G311" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
@@ -10609,10 +10609,10 @@
         <v>2741</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
@@ -10643,10 +10643,10 @@
         <v>2743</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
@@ -10673,10 +10673,10 @@
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
       <c r="G314" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
@@ -10703,10 +10703,10 @@
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
       <c r="G315" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
@@ -10733,10 +10733,10 @@
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
       <c r="G316" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
@@ -10763,10 +10763,10 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
       <c r="G317" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
@@ -10793,10 +10793,10 @@
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
       <c r="G318" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
@@ -10823,10 +10823,10 @@
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
       <c r="G319" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
@@ -10853,10 +10853,10 @@
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
       <c r="G320" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H320" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
@@ -10887,7 +10887,7 @@
         <v>2179</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
@@ -10919,7 +10919,7 @@
         <v>2362</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
@@ -10951,7 +10951,7 @@
         <v>2548</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
@@ -10979,7 +10979,7 @@
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
       <c r="G324" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
@@ -11007,7 +11007,7 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
       <c r="G325" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
@@ -11035,7 +11035,7 @@
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
       <c r="G326" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
@@ -11063,7 +11063,7 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
       <c r="G327" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
@@ -11091,7 +11091,7 @@
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
       <c r="G328" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
@@ -11119,7 +11119,7 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
       <c r="G329" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
@@ -11147,7 +11147,7 @@
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
       <c r="G330" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
@@ -11175,7 +11175,7 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
       <c r="G331" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
@@ -11203,10 +11203,10 @@
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
       <c r="G332" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
@@ -11233,10 +11233,10 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
       <c r="G333" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H333" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
@@ -11263,10 +11263,10 @@
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
       <c r="G334" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
@@ -11293,10 +11293,10 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
       <c r="G335" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H335" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
@@ -11323,10 +11323,10 @@
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
       <c r="G336" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H336" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H336" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
@@ -11353,10 +11353,10 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
       <c r="G337" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H337" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
@@ -11383,10 +11383,10 @@
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
       <c r="G338" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H338" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
@@ -11413,10 +11413,10 @@
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
       <c r="G339" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H339" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
@@ -11443,10 +11443,10 @@
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
       <c r="G340" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
@@ -11473,10 +11473,10 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
       <c r="G341" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H341" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
@@ -11503,10 +11503,10 @@
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
       <c r="G342" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H342" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
@@ -11533,10 +11533,10 @@
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
       <c r="G343" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
@@ -11563,10 +11563,10 @@
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
       <c r="G344" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H344" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
@@ -11593,10 +11593,10 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
@@ -11623,10 +11623,10 @@
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
       <c r="G346" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
@@ -11653,10 +11653,10 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
       <c r="G347" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
@@ -11683,10 +11683,10 @@
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
@@ -11713,10 +11713,10 @@
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
       <c r="G349" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H349" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
@@ -11743,7 +11743,7 @@
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
       <c r="G350" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
@@ -11771,7 +11771,7 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
       <c r="G351" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
@@ -11799,7 +11799,7 @@
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
       <c r="G352" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
@@ -11827,7 +11827,7 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
       <c r="G353" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
@@ -11855,7 +11855,7 @@
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
       <c r="G354" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
@@ -11883,7 +11883,7 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
       <c r="G355" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
@@ -11911,7 +11911,7 @@
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
       <c r="G356" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
@@ -11939,7 +11939,7 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
       <c r="G357" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
@@ -11967,7 +11967,7 @@
       <c r="E358" s="2"/>
       <c r="F358" s="2"/>
       <c r="G358" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
@@ -11995,7 +11995,7 @@
       <c r="E359" s="2"/>
       <c r="F359" s="2"/>
       <c r="G359" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
@@ -12023,7 +12023,7 @@
       <c r="E360" s="2"/>
       <c r="F360" s="2"/>
       <c r="G360" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
@@ -12051,10 +12051,10 @@
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
       <c r="G361" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
@@ -12081,10 +12081,10 @@
       <c r="E362" s="2"/>
       <c r="F362" s="2"/>
       <c r="G362" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H362" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
@@ -12111,10 +12111,10 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2"/>
       <c r="G363" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H363" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
@@ -12141,10 +12141,10 @@
       <c r="E364" s="2"/>
       <c r="F364" s="2"/>
       <c r="G364" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H364" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
@@ -12171,10 +12171,10 @@
       <c r="E365" s="2"/>
       <c r="F365" s="2"/>
       <c r="G365" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H365" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H365" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
@@ -12201,10 +12201,10 @@
       <c r="E366" s="2"/>
       <c r="F366" s="2"/>
       <c r="G366" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
@@ -12231,10 +12231,10 @@
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
       <c r="G367" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H367" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
@@ -12261,10 +12261,10 @@
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
       <c r="G368" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
@@ -12291,10 +12291,10 @@
       <c r="E369" s="2"/>
       <c r="F369" s="2"/>
       <c r="G369" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
@@ -12321,10 +12321,10 @@
       <c r="E370" s="2"/>
       <c r="F370" s="2"/>
       <c r="G370" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H370" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
@@ -12351,10 +12351,10 @@
       <c r="E371" s="2"/>
       <c r="F371" s="2"/>
       <c r="G371" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H371" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
@@ -12381,10 +12381,10 @@
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
       <c r="G372" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H372" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
@@ -12411,10 +12411,10 @@
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
       <c r="G373" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
@@ -12441,10 +12441,10 @@
       <c r="E374" s="2"/>
       <c r="F374" s="2"/>
       <c r="G374" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
@@ -12471,10 +12471,10 @@
       <c r="E375" s="2"/>
       <c r="F375" s="2"/>
       <c r="G375" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
@@ -12501,10 +12501,10 @@
       <c r="E376" s="2"/>
       <c r="F376" s="2"/>
       <c r="G376" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H376" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
@@ -12531,10 +12531,10 @@
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
       <c r="G377" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H377" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
@@ -12561,10 +12561,10 @@
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
       <c r="G378" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
@@ -12591,7 +12591,7 @@
       <c r="E379" s="2"/>
       <c r="F379" s="2"/>
       <c r="G379" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
@@ -12619,7 +12619,7 @@
       <c r="E380" s="2"/>
       <c r="F380" s="2"/>
       <c r="G380" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
@@ -12647,7 +12647,7 @@
       <c r="E381" s="2"/>
       <c r="F381" s="2"/>
       <c r="G381" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
@@ -12675,7 +12675,7 @@
       <c r="E382" s="2"/>
       <c r="F382" s="2"/>
       <c r="G382" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
@@ -12703,7 +12703,7 @@
       <c r="E383" s="2"/>
       <c r="F383" s="2"/>
       <c r="G383" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
@@ -12731,7 +12731,7 @@
       <c r="E384" s="2"/>
       <c r="F384" s="2"/>
       <c r="G384" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
@@ -12759,7 +12759,7 @@
       <c r="E385" s="2"/>
       <c r="F385" s="2"/>
       <c r="G385" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
@@ -12787,7 +12787,7 @@
       <c r="E386" s="2"/>
       <c r="F386" s="2"/>
       <c r="G386" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
@@ -12815,7 +12815,7 @@
       <c r="E387" s="2"/>
       <c r="F387" s="2"/>
       <c r="G387" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
@@ -12843,7 +12843,7 @@
       <c r="E388" s="2"/>
       <c r="F388" s="2"/>
       <c r="G388" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
@@ -12871,7 +12871,7 @@
       <c r="E389" s="2"/>
       <c r="F389" s="2"/>
       <c r="G389" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
@@ -12899,10 +12899,10 @@
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
       <c r="G390" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
@@ -12929,10 +12929,10 @@
       <c r="E391" s="2"/>
       <c r="F391" s="2"/>
       <c r="G391" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H391" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
@@ -12959,10 +12959,10 @@
       <c r="E392" s="2"/>
       <c r="F392" s="2"/>
       <c r="G392" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H392" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
@@ -12989,10 +12989,10 @@
       <c r="E393" s="2"/>
       <c r="F393" s="2"/>
       <c r="G393" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H393" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
@@ -13019,10 +13019,10 @@
       <c r="E394" s="2"/>
       <c r="F394" s="2"/>
       <c r="G394" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H394" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H394" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
@@ -13049,10 +13049,10 @@
       <c r="E395" s="2"/>
       <c r="F395" s="2"/>
       <c r="G395" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H395" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
@@ -13079,10 +13079,10 @@
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
       <c r="G396" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H396" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
@@ -13109,10 +13109,10 @@
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
       <c r="G397" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H397" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
@@ -13139,10 +13139,10 @@
       <c r="E398" s="2"/>
       <c r="F398" s="2"/>
       <c r="G398" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H398" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
@@ -13169,10 +13169,10 @@
       <c r="E399" s="2"/>
       <c r="F399" s="2"/>
       <c r="G399" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H399" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
@@ -13199,10 +13199,10 @@
       <c r="E400" s="2"/>
       <c r="F400" s="2"/>
       <c r="G400" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H400" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
@@ -13229,10 +13229,10 @@
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
       <c r="G401" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H401" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
@@ -13259,10 +13259,10 @@
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
       <c r="G402" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H402" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
@@ -13289,10 +13289,10 @@
       <c r="E403" s="2"/>
       <c r="F403" s="2"/>
       <c r="G403" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H403" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
@@ -13319,10 +13319,10 @@
       <c r="E404" s="2"/>
       <c r="F404" s="2"/>
       <c r="G404" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H404" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
@@ -13349,10 +13349,10 @@
       <c r="E405" s="2"/>
       <c r="F405" s="2"/>
       <c r="G405" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H405" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
@@ -13379,10 +13379,10 @@
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
       <c r="G406" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H406" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
@@ -13409,10 +13409,10 @@
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
       <c r="G407" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H407" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
@@ -13439,7 +13439,7 @@
       <c r="E408" s="2"/>
       <c r="F408" s="2"/>
       <c r="G408" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
@@ -13467,7 +13467,7 @@
       <c r="E409" s="2"/>
       <c r="F409" s="2"/>
       <c r="G409" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
@@ -13495,7 +13495,7 @@
       <c r="E410" s="2"/>
       <c r="F410" s="2"/>
       <c r="G410" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
@@ -13523,7 +13523,7 @@
       <c r="E411" s="2"/>
       <c r="F411" s="2"/>
       <c r="G411" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
@@ -13551,7 +13551,7 @@
       <c r="E412" s="2"/>
       <c r="F412" s="2"/>
       <c r="G412" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
@@ -13579,7 +13579,7 @@
       <c r="E413" s="2"/>
       <c r="F413" s="2"/>
       <c r="G413" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
@@ -13607,7 +13607,7 @@
       <c r="E414" s="2"/>
       <c r="F414" s="2"/>
       <c r="G414" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
@@ -13635,7 +13635,7 @@
       <c r="E415" s="2"/>
       <c r="F415" s="2"/>
       <c r="G415" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
@@ -13663,7 +13663,7 @@
       <c r="E416" s="2"/>
       <c r="F416" s="2"/>
       <c r="G416" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
@@ -13691,7 +13691,7 @@
       <c r="E417" s="2"/>
       <c r="F417" s="2"/>
       <c r="G417" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
@@ -13719,7 +13719,7 @@
       <c r="E418" s="2"/>
       <c r="F418" s="2"/>
       <c r="G418" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
@@ -13747,10 +13747,10 @@
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
       <c r="G419" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
@@ -13777,10 +13777,10 @@
       <c r="E420" s="2"/>
       <c r="F420" s="2"/>
       <c r="G420" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H420" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
@@ -13807,10 +13807,10 @@
       <c r="E421" s="2"/>
       <c r="F421" s="2"/>
       <c r="G421" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H421" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
@@ -13837,10 +13837,10 @@
       <c r="E422" s="2"/>
       <c r="F422" s="2"/>
       <c r="G422" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H422" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
@@ -13867,10 +13867,10 @@
       <c r="E423" s="2"/>
       <c r="F423" s="2"/>
       <c r="G423" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H423" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H423" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
@@ -13897,10 +13897,10 @@
       <c r="E424" s="2"/>
       <c r="F424" s="2"/>
       <c r="G424" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H424" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
@@ -13927,10 +13927,10 @@
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
       <c r="G425" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H425" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
@@ -13957,10 +13957,10 @@
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
       <c r="G426" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H426" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
@@ -13987,10 +13987,10 @@
       <c r="E427" s="2"/>
       <c r="F427" s="2"/>
       <c r="G427" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H427" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
@@ -14017,10 +14017,10 @@
       <c r="E428" s="2"/>
       <c r="F428" s="2"/>
       <c r="G428" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H428" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
@@ -14047,10 +14047,10 @@
       <c r="E429" s="2"/>
       <c r="F429" s="2"/>
       <c r="G429" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H429" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
@@ -14077,10 +14077,10 @@
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
       <c r="G430" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H430" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
@@ -14107,10 +14107,10 @@
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
       <c r="G431" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
@@ -14137,10 +14137,10 @@
       <c r="E432" s="2"/>
       <c r="F432" s="2"/>
       <c r="G432" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H432" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
@@ -14167,10 +14167,10 @@
       <c r="E433" s="2"/>
       <c r="F433" s="2"/>
       <c r="G433" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H433" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
@@ -14197,10 +14197,10 @@
       <c r="E434" s="2"/>
       <c r="F434" s="2"/>
       <c r="G434" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H434" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
@@ -14227,10 +14227,10 @@
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
       <c r="G435" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H435" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
@@ -14257,10 +14257,10 @@
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
       <c r="G436" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
@@ -14287,7 +14287,7 @@
       <c r="E437" s="2"/>
       <c r="F437" s="2"/>
       <c r="G437" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
@@ -14315,7 +14315,7 @@
       <c r="E438" s="2"/>
       <c r="F438" s="2"/>
       <c r="G438" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
@@ -14343,7 +14343,7 @@
       <c r="E439" s="2"/>
       <c r="F439" s="2"/>
       <c r="G439" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
@@ -14371,7 +14371,7 @@
       <c r="E440" s="2"/>
       <c r="F440" s="2"/>
       <c r="G440" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
@@ -14399,7 +14399,7 @@
       <c r="E441" s="2"/>
       <c r="F441" s="2"/>
       <c r="G441" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
@@ -14427,7 +14427,7 @@
       <c r="E442" s="2"/>
       <c r="F442" s="2"/>
       <c r="G442" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
@@ -14455,7 +14455,7 @@
       <c r="E443" s="2"/>
       <c r="F443" s="2"/>
       <c r="G443" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
@@ -14483,7 +14483,7 @@
       <c r="E444" s="2"/>
       <c r="F444" s="2"/>
       <c r="G444" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
@@ -14511,7 +14511,7 @@
       <c r="E445" s="2"/>
       <c r="F445" s="2"/>
       <c r="G445" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
@@ -14539,7 +14539,7 @@
       <c r="E446" s="2"/>
       <c r="F446" s="2"/>
       <c r="G446" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
@@ -14567,7 +14567,7 @@
       <c r="E447" s="2"/>
       <c r="F447" s="2"/>
       <c r="G447" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
@@ -14595,10 +14595,10 @@
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
       <c r="G448" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H448" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
@@ -14625,10 +14625,10 @@
       <c r="E449" s="2"/>
       <c r="F449" s="2"/>
       <c r="G449" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H449" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
@@ -14655,10 +14655,10 @@
       <c r="E450" s="2"/>
       <c r="F450" s="2"/>
       <c r="G450" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
@@ -14685,10 +14685,10 @@
       <c r="E451" s="2"/>
       <c r="F451" s="2"/>
       <c r="G451" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H451" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
@@ -14715,10 +14715,10 @@
       <c r="E452" s="2"/>
       <c r="F452" s="2"/>
       <c r="G452" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H452" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H452" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
@@ -14745,10 +14745,10 @@
       <c r="E453" s="2"/>
       <c r="F453" s="2"/>
       <c r="G453" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H453" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
@@ -14775,10 +14775,10 @@
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
       <c r="G454" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H454" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
@@ -14805,10 +14805,10 @@
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
       <c r="G455" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H455" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
@@ -14835,10 +14835,10 @@
       <c r="E456" s="2"/>
       <c r="F456" s="2"/>
       <c r="G456" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H456" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
@@ -14865,10 +14865,10 @@
       <c r="E457" s="2"/>
       <c r="F457" s="2"/>
       <c r="G457" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H457" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
@@ -14895,10 +14895,10 @@
       <c r="E458" s="2"/>
       <c r="F458" s="2"/>
       <c r="G458" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H458" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
@@ -14925,10 +14925,10 @@
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
       <c r="G459" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H459" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
@@ -14955,10 +14955,10 @@
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
       <c r="G460" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H460" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
@@ -14985,10 +14985,10 @@
       <c r="E461" s="2"/>
       <c r="F461" s="2"/>
       <c r="G461" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H461" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
@@ -15015,10 +15015,10 @@
       <c r="E462" s="2"/>
       <c r="F462" s="2"/>
       <c r="G462" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H462" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
@@ -15045,10 +15045,10 @@
       <c r="E463" s="2"/>
       <c r="F463" s="2"/>
       <c r="G463" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H463" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
@@ -15075,10 +15075,10 @@
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
       <c r="G464" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H464" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
@@ -15105,10 +15105,10 @@
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
       <c r="G465" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H465" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
@@ -15135,7 +15135,7 @@
       <c r="E466" s="2"/>
       <c r="F466" s="2"/>
       <c r="G466" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
@@ -15163,7 +15163,7 @@
       <c r="E467" s="2"/>
       <c r="F467" s="2"/>
       <c r="G467" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
@@ -15191,7 +15191,7 @@
       <c r="E468" s="2"/>
       <c r="F468" s="2"/>
       <c r="G468" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
@@ -15219,7 +15219,7 @@
       <c r="E469" s="2"/>
       <c r="F469" s="2"/>
       <c r="G469" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
@@ -15247,7 +15247,7 @@
       <c r="E470" s="2"/>
       <c r="F470" s="2"/>
       <c r="G470" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
@@ -15275,7 +15275,7 @@
       <c r="E471" s="2"/>
       <c r="F471" s="2"/>
       <c r="G471" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
@@ -15303,7 +15303,7 @@
       <c r="E472" s="2"/>
       <c r="F472" s="2"/>
       <c r="G472" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
@@ -15331,7 +15331,7 @@
       <c r="E473" s="2"/>
       <c r="F473" s="2"/>
       <c r="G473" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
@@ -15359,7 +15359,7 @@
       <c r="E474" s="2"/>
       <c r="F474" s="2"/>
       <c r="G474" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
@@ -15387,7 +15387,7 @@
       <c r="E475" s="2"/>
       <c r="F475" s="2"/>
       <c r="G475" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
@@ -15415,7 +15415,7 @@
       <c r="E476" s="2"/>
       <c r="F476" s="2"/>
       <c r="G476" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
@@ -15443,10 +15443,10 @@
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
       <c r="G477" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
@@ -15473,10 +15473,10 @@
       <c r="E478" s="2"/>
       <c r="F478" s="2"/>
       <c r="G478" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H478" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
@@ -15503,10 +15503,10 @@
       <c r="E479" s="2"/>
       <c r="F479" s="2"/>
       <c r="G479" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H479" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
@@ -15533,10 +15533,10 @@
       <c r="E480" s="2"/>
       <c r="F480" s="2"/>
       <c r="G480" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H480" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
@@ -15563,10 +15563,10 @@
       <c r="E481" s="2"/>
       <c r="F481" s="2"/>
       <c r="G481" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H481" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H481" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
@@ -15593,10 +15593,10 @@
       <c r="E482" s="2"/>
       <c r="F482" s="2"/>
       <c r="G482" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H482" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
@@ -15623,10 +15623,10 @@
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
       <c r="G483" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H483" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
@@ -15653,10 +15653,10 @@
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
       <c r="G484" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H484" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
@@ -15683,10 +15683,10 @@
       <c r="E485" s="2"/>
       <c r="F485" s="2"/>
       <c r="G485" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H485" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
@@ -15713,10 +15713,10 @@
       <c r="E486" s="2"/>
       <c r="F486" s="2"/>
       <c r="G486" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
@@ -15743,10 +15743,10 @@
       <c r="E487" s="2"/>
       <c r="F487" s="2"/>
       <c r="G487" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
@@ -15773,10 +15773,10 @@
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
       <c r="G488" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
@@ -15803,10 +15803,10 @@
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
       <c r="G489" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H489" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
@@ -15833,10 +15833,10 @@
       <c r="E490" s="2"/>
       <c r="F490" s="2"/>
       <c r="G490" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H490" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
@@ -15863,10 +15863,10 @@
       <c r="E491" s="2"/>
       <c r="F491" s="2"/>
       <c r="G491" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
@@ -15893,10 +15893,10 @@
       <c r="E492" s="2"/>
       <c r="F492" s="2"/>
       <c r="G492" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H492" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
@@ -15923,10 +15923,10 @@
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
       <c r="G493" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H493" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
@@ -15953,10 +15953,10 @@
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
       <c r="G494" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H494" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
@@ -15983,7 +15983,7 @@
       <c r="E495" s="2"/>
       <c r="F495" s="2"/>
       <c r="G495" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
@@ -16011,7 +16011,7 @@
       <c r="E496" s="2"/>
       <c r="F496" s="2"/>
       <c r="G496" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
@@ -16039,7 +16039,7 @@
       <c r="E497" s="2"/>
       <c r="F497" s="2"/>
       <c r="G497" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
@@ -16067,7 +16067,7 @@
       <c r="E498" s="2"/>
       <c r="F498" s="2"/>
       <c r="G498" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
@@ -16095,7 +16095,7 @@
       <c r="E499" s="2"/>
       <c r="F499" s="2"/>
       <c r="G499" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
@@ -16123,7 +16123,7 @@
       <c r="E500" s="2"/>
       <c r="F500" s="2"/>
       <c r="G500" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
@@ -16151,7 +16151,7 @@
       <c r="E501" s="2"/>
       <c r="F501" s="2"/>
       <c r="G501" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H501" s="1"/>
       <c r="I501" s="1"/>
@@ -16179,7 +16179,7 @@
       <c r="E502" s="2"/>
       <c r="F502" s="2"/>
       <c r="G502" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H502" s="1"/>
       <c r="I502" s="1"/>
@@ -16207,7 +16207,7 @@
       <c r="E503" s="2"/>
       <c r="F503" s="2"/>
       <c r="G503" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H503" s="1"/>
       <c r="I503" s="1"/>
@@ -16235,7 +16235,7 @@
       <c r="E504" s="2"/>
       <c r="F504" s="2"/>
       <c r="G504" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H504" s="1"/>
       <c r="I504" s="1"/>
@@ -16263,7 +16263,7 @@
       <c r="E505" s="2"/>
       <c r="F505" s="2"/>
       <c r="G505" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H505" s="1"/>
       <c r="I505" s="1"/>
@@ -16291,10 +16291,10 @@
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
       <c r="G506" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H506" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I506" s="1"/>
       <c r="J506" s="1"/>
@@ -16321,10 +16321,10 @@
       <c r="E507" s="2"/>
       <c r="F507" s="2"/>
       <c r="G507" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I507" s="1"/>
       <c r="J507" s="1"/>
@@ -16351,10 +16351,10 @@
       <c r="E508" s="2"/>
       <c r="F508" s="2"/>
       <c r="G508" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I508" s="1"/>
       <c r="J508" s="1"/>
@@ -16381,10 +16381,10 @@
       <c r="E509" s="2"/>
       <c r="F509" s="2"/>
       <c r="G509" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I509" s="1"/>
       <c r="J509" s="1"/>
@@ -16411,10 +16411,10 @@
       <c r="E510" s="2"/>
       <c r="F510" s="2"/>
       <c r="G510" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H510" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H510" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I510" s="1"/>
       <c r="J510" s="1"/>
@@ -16441,10 +16441,10 @@
       <c r="E511" s="2"/>
       <c r="F511" s="2"/>
       <c r="G511" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I511" s="1"/>
       <c r="J511" s="1"/>
@@ -16471,10 +16471,10 @@
       <c r="E512" s="1"/>
       <c r="F512" s="1"/>
       <c r="G512" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H512" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I512" s="1"/>
       <c r="J512" s="1"/>
@@ -16501,10 +16501,10 @@
       <c r="E513" s="1"/>
       <c r="F513" s="1"/>
       <c r="G513" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H513" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I513" s="1"/>
       <c r="J513" s="1"/>
@@ -16531,10 +16531,10 @@
       <c r="E514" s="2"/>
       <c r="F514" s="2"/>
       <c r="G514" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H514" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I514" s="1"/>
       <c r="J514" s="1"/>
@@ -16561,10 +16561,10 @@
       <c r="E515" s="2"/>
       <c r="F515" s="2"/>
       <c r="G515" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H515" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I515" s="1"/>
       <c r="J515" s="1"/>
@@ -16591,10 +16591,10 @@
       <c r="E516" s="2"/>
       <c r="F516" s="2"/>
       <c r="G516" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H516" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I516" s="1"/>
       <c r="J516" s="1"/>
@@ -16621,10 +16621,10 @@
       <c r="E517" s="1"/>
       <c r="F517" s="1"/>
       <c r="G517" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
@@ -16651,10 +16651,10 @@
       <c r="E518" s="1"/>
       <c r="F518" s="1"/>
       <c r="G518" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I518" s="1"/>
       <c r="J518" s="1"/>
@@ -16681,10 +16681,10 @@
       <c r="E519" s="2"/>
       <c r="F519" s="2"/>
       <c r="G519" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
@@ -16711,10 +16711,10 @@
       <c r="E520" s="2"/>
       <c r="F520" s="2"/>
       <c r="G520" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H520" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I520" s="1"/>
       <c r="J520" s="1"/>
@@ -16741,10 +16741,10 @@
       <c r="E521" s="2"/>
       <c r="F521" s="2"/>
       <c r="G521" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H521" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
@@ -16771,10 +16771,10 @@
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H522" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I522" s="1"/>
       <c r="J522" s="1"/>
@@ -16801,10 +16801,10 @@
       <c r="E523" s="1"/>
       <c r="F523" s="1"/>
       <c r="G523" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H523" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I523" s="1"/>
       <c r="J523" s="1"/>
@@ -16831,7 +16831,7 @@
       <c r="E524" s="2"/>
       <c r="F524" s="2"/>
       <c r="G524" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H524" s="1"/>
       <c r="I524" s="1"/>
@@ -16859,7 +16859,7 @@
       <c r="E525" s="2"/>
       <c r="F525" s="2"/>
       <c r="G525" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H525" s="1"/>
       <c r="I525" s="1"/>
@@ -16887,7 +16887,7 @@
       <c r="E526" s="2"/>
       <c r="F526" s="2"/>
       <c r="G526" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
@@ -16915,7 +16915,7 @@
       <c r="E527" s="2"/>
       <c r="F527" s="2"/>
       <c r="G527" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
@@ -16943,7 +16943,7 @@
       <c r="E528" s="2"/>
       <c r="F528" s="2"/>
       <c r="G528" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H528" s="1"/>
       <c r="I528" s="1"/>
@@ -16971,7 +16971,7 @@
       <c r="E529" s="2"/>
       <c r="F529" s="2"/>
       <c r="G529" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H529" s="1"/>
       <c r="I529" s="1"/>
@@ -16999,7 +16999,7 @@
       <c r="E530" s="2"/>
       <c r="F530" s="2"/>
       <c r="G530" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H530" s="1"/>
       <c r="I530" s="1"/>
@@ -17027,7 +17027,7 @@
       <c r="E531" s="2"/>
       <c r="F531" s="2"/>
       <c r="G531" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H531" s="1"/>
       <c r="I531" s="1"/>
@@ -17055,7 +17055,7 @@
       <c r="E532" s="2"/>
       <c r="F532" s="2"/>
       <c r="G532" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H532" s="1"/>
       <c r="I532" s="1"/>
@@ -17083,7 +17083,7 @@
       <c r="E533" s="2"/>
       <c r="F533" s="2"/>
       <c r="G533" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H533" s="1"/>
       <c r="I533" s="1"/>
@@ -17111,7 +17111,7 @@
       <c r="E534" s="2"/>
       <c r="F534" s="2"/>
       <c r="G534" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H534" s="1"/>
       <c r="I534" s="1"/>
@@ -17139,10 +17139,10 @@
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
       <c r="G535" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H535" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I535" s="1"/>
       <c r="J535" s="1"/>
@@ -17169,10 +17169,10 @@
       <c r="E536" s="2"/>
       <c r="F536" s="2"/>
       <c r="G536" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I536" s="1"/>
       <c r="J536" s="1"/>
@@ -17199,10 +17199,10 @@
       <c r="E537" s="2"/>
       <c r="F537" s="2"/>
       <c r="G537" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I537" s="1"/>
       <c r="J537" s="1"/>
@@ -17229,10 +17229,10 @@
       <c r="E538" s="2"/>
       <c r="F538" s="2"/>
       <c r="G538" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H538" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I538" s="1"/>
       <c r="J538" s="1"/>
@@ -17259,10 +17259,10 @@
       <c r="E539" s="2"/>
       <c r="F539" s="2"/>
       <c r="G539" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H539" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H539" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I539" s="1"/>
       <c r="J539" s="1"/>
@@ -17289,10 +17289,10 @@
       <c r="E540" s="2"/>
       <c r="F540" s="2"/>
       <c r="G540" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H540" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I540" s="1"/>
       <c r="J540" s="1"/>
@@ -17319,10 +17319,10 @@
       <c r="E541" s="1"/>
       <c r="F541" s="1"/>
       <c r="G541" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H541" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I541" s="1"/>
       <c r="J541" s="1"/>
@@ -17349,10 +17349,10 @@
       <c r="E542" s="1"/>
       <c r="F542" s="1"/>
       <c r="G542" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H542" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I542" s="1"/>
       <c r="J542" s="1"/>
@@ -17379,10 +17379,10 @@
       <c r="E543" s="2"/>
       <c r="F543" s="2"/>
       <c r="G543" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H543" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I543" s="1"/>
       <c r="J543" s="1"/>
@@ -17409,10 +17409,10 @@
       <c r="E544" s="2"/>
       <c r="F544" s="2"/>
       <c r="G544" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H544" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I544" s="1"/>
       <c r="J544" s="1"/>
@@ -17439,10 +17439,10 @@
       <c r="E545" s="2"/>
       <c r="F545" s="2"/>
       <c r="G545" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H545" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I545" s="1"/>
       <c r="J545" s="1"/>
@@ -17469,10 +17469,10 @@
       <c r="E546" s="1"/>
       <c r="F546" s="1"/>
       <c r="G546" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H546" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I546" s="1"/>
       <c r="J546" s="1"/>
@@ -17499,10 +17499,10 @@
       <c r="E547" s="1"/>
       <c r="F547" s="1"/>
       <c r="G547" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H547" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I547" s="1"/>
       <c r="J547" s="1"/>
@@ -17529,10 +17529,10 @@
       <c r="E548" s="2"/>
       <c r="F548" s="2"/>
       <c r="G548" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H548" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I548" s="1"/>
       <c r="J548" s="1"/>
@@ -17559,10 +17559,10 @@
       <c r="E549" s="2"/>
       <c r="F549" s="2"/>
       <c r="G549" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H549" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I549" s="1"/>
       <c r="J549" s="1"/>
@@ -17589,10 +17589,10 @@
       <c r="E550" s="2"/>
       <c r="F550" s="2"/>
       <c r="G550" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H550" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I550" s="1"/>
       <c r="J550" s="1"/>
@@ -17619,10 +17619,10 @@
       <c r="E551" s="1"/>
       <c r="F551" s="1"/>
       <c r="G551" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H551" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I551" s="1"/>
       <c r="J551" s="1"/>
@@ -17649,10 +17649,10 @@
       <c r="E552" s="1"/>
       <c r="F552" s="1"/>
       <c r="G552" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H552" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I552" s="1"/>
       <c r="J552" s="1"/>
@@ -17679,7 +17679,7 @@
       <c r="E553" s="2"/>
       <c r="F553" s="2"/>
       <c r="G553" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H553" s="1"/>
       <c r="I553" s="1"/>
@@ -17707,7 +17707,7 @@
       <c r="E554" s="2"/>
       <c r="F554" s="2"/>
       <c r="G554" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H554" s="1"/>
       <c r="I554" s="1"/>
@@ -17735,7 +17735,7 @@
       <c r="E555" s="2"/>
       <c r="F555" s="2"/>
       <c r="G555" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H555" s="1"/>
       <c r="I555" s="1"/>
@@ -17763,7 +17763,7 @@
       <c r="E556" s="2"/>
       <c r="F556" s="2"/>
       <c r="G556" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H556" s="1"/>
       <c r="I556" s="1"/>
@@ -17791,7 +17791,7 @@
       <c r="E557" s="2"/>
       <c r="F557" s="2"/>
       <c r="G557" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H557" s="1"/>
       <c r="I557" s="1"/>
@@ -17819,7 +17819,7 @@
       <c r="E558" s="2"/>
       <c r="F558" s="2"/>
       <c r="G558" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H558" s="1"/>
       <c r="I558" s="1"/>
@@ -17847,7 +17847,7 @@
       <c r="E559" s="2"/>
       <c r="F559" s="2"/>
       <c r="G559" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H559" s="1"/>
       <c r="I559" s="1"/>
@@ -17875,7 +17875,7 @@
       <c r="E560" s="2"/>
       <c r="F560" s="2"/>
       <c r="G560" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H560" s="1"/>
       <c r="I560" s="1"/>
@@ -17903,7 +17903,7 @@
       <c r="E561" s="2"/>
       <c r="F561" s="2"/>
       <c r="G561" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H561" s="1"/>
       <c r="I561" s="1"/>
@@ -17931,7 +17931,7 @@
       <c r="E562" s="2"/>
       <c r="F562" s="2"/>
       <c r="G562" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H562" s="1"/>
       <c r="I562" s="1"/>
@@ -17959,7 +17959,7 @@
       <c r="E563" s="2"/>
       <c r="F563" s="2"/>
       <c r="G563" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H563" s="1"/>
       <c r="I563" s="1"/>
@@ -17987,10 +17987,10 @@
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
       <c r="G564" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H564" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I564" s="1"/>
       <c r="J564" s="1"/>
@@ -18017,10 +18017,10 @@
       <c r="E565" s="2"/>
       <c r="F565" s="2"/>
       <c r="G565" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H565" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I565" s="1"/>
       <c r="J565" s="1"/>
@@ -18047,10 +18047,10 @@
       <c r="E566" s="2"/>
       <c r="F566" s="2"/>
       <c r="G566" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H566" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I566" s="1"/>
       <c r="J566" s="1"/>
@@ -18077,10 +18077,10 @@
       <c r="E567" s="2"/>
       <c r="F567" s="2"/>
       <c r="G567" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H567" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I567" s="1"/>
       <c r="J567" s="1"/>
@@ -18107,10 +18107,10 @@
       <c r="E568" s="2"/>
       <c r="F568" s="2"/>
       <c r="G568" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H568" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="H568" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I568" s="1"/>
       <c r="J568" s="1"/>
@@ -18137,10 +18137,10 @@
       <c r="E569" s="2"/>
       <c r="F569" s="2"/>
       <c r="G569" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H569" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I569" s="1"/>
       <c r="J569" s="1"/>
@@ -18167,10 +18167,10 @@
       <c r="E570" s="1"/>
       <c r="F570" s="1"/>
       <c r="G570" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H570" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I570" s="1"/>
       <c r="J570" s="1"/>
@@ -18197,10 +18197,10 @@
       <c r="E571" s="1"/>
       <c r="F571" s="1"/>
       <c r="G571" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H571" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I571" s="1"/>
       <c r="J571" s="1"/>
@@ -18227,10 +18227,10 @@
       <c r="E572" s="2"/>
       <c r="F572" s="2"/>
       <c r="G572" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H572" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I572" s="1"/>
       <c r="J572" s="1"/>
@@ -18257,10 +18257,10 @@
       <c r="E573" s="2"/>
       <c r="F573" s="2"/>
       <c r="G573" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H573" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I573" s="1"/>
       <c r="J573" s="1"/>
@@ -18287,10 +18287,10 @@
       <c r="E574" s="2"/>
       <c r="F574" s="2"/>
       <c r="G574" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H574" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I574" s="1"/>
       <c r="J574" s="1"/>
@@ -18317,10 +18317,10 @@
       <c r="E575" s="1"/>
       <c r="F575" s="1"/>
       <c r="G575" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H575" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I575" s="1"/>
       <c r="J575" s="1"/>
@@ -18347,10 +18347,10 @@
       <c r="E576" s="1"/>
       <c r="F576" s="1"/>
       <c r="G576" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H576" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I576" s="1"/>
       <c r="J576" s="1"/>
@@ -18377,10 +18377,10 @@
       <c r="E577" s="2"/>
       <c r="F577" s="2"/>
       <c r="G577" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H577" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I577" s="1"/>
       <c r="J577" s="1"/>
@@ -18407,10 +18407,10 @@
       <c r="E578" s="2"/>
       <c r="F578" s="2"/>
       <c r="G578" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H578" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I578" s="1"/>
       <c r="J578" s="1"/>
@@ -18437,10 +18437,10 @@
       <c r="E579" s="2"/>
       <c r="F579" s="2"/>
       <c r="G579" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H579" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I579" s="1"/>
       <c r="J579" s="1"/>
@@ -18467,10 +18467,10 @@
       <c r="E580" s="1"/>
       <c r="F580" s="1"/>
       <c r="G580" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H580" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I580" s="1"/>
       <c r="J580" s="1"/>
@@ -18497,10 +18497,10 @@
       <c r="E581" s="1"/>
       <c r="F581" s="1"/>
       <c r="G581" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H581" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I581" s="1"/>
       <c r="J581" s="1"/>
@@ -18527,7 +18527,7 @@
       <c r="E582" s="2"/>
       <c r="F582" s="2"/>
       <c r="G582" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H582" s="1"/>
       <c r="I582" s="1"/>
@@ -18555,7 +18555,7 @@
       <c r="E583" s="2"/>
       <c r="F583" s="2"/>
       <c r="G583" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H583" s="1"/>
       <c r="I583" s="1"/>
@@ -18583,7 +18583,7 @@
       <c r="E584" s="2"/>
       <c r="F584" s="2"/>
       <c r="G584" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H584" s="1"/>
       <c r="I584" s="1"/>
@@ -18611,7 +18611,7 @@
       <c r="E585" s="2"/>
       <c r="F585" s="2"/>
       <c r="G585" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H585" s="1"/>
       <c r="I585" s="1"/>
@@ -18639,7 +18639,7 @@
       <c r="E586" s="2"/>
       <c r="F586" s="2"/>
       <c r="G586" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H586" s="1"/>
       <c r="I586" s="1"/>
@@ -18667,7 +18667,7 @@
       <c r="E587" s="2"/>
       <c r="F587" s="2"/>
       <c r="G587" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H587" s="1"/>
       <c r="I587" s="1"/>
@@ -18695,7 +18695,7 @@
       <c r="E588" s="2"/>
       <c r="F588" s="2"/>
       <c r="G588" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H588" s="1"/>
       <c r="I588" s="1"/>
@@ -18723,7 +18723,7 @@
       <c r="E589" s="2"/>
       <c r="F589" s="2"/>
       <c r="G589" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H589" s="1"/>
       <c r="I589" s="1"/>
@@ -18751,7 +18751,7 @@
       <c r="E590" s="2"/>
       <c r="F590" s="2"/>
       <c r="G590" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H590" s="1"/>
       <c r="I590" s="1"/>
@@ -18779,7 +18779,7 @@
       <c r="E591" s="2"/>
       <c r="F591" s="2"/>
       <c r="G591" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H591" s="1"/>
       <c r="I591" s="1"/>
@@ -18807,7 +18807,7 @@
       <c r="E592" s="2"/>
       <c r="F592" s="2"/>
       <c r="G592" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H592" s="1"/>
       <c r="I592" s="1"/>
